--- a/benchmark/results/hierarchical_metrics/sp_rdp_its.100.xlsx
+++ b/benchmark/results/hierarchical_metrics/sp_rdp_its.100.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9999911990424558</v>
       </c>
       <c r="C2" t="n">
         <v>0.9840904993690284</v>
@@ -567,7 +567,7 @@
         <v>0.9999555100769676</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9968220244418458</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9999911990424558</v>
       </c>
       <c r="C3" t="n">
         <v>0.971437469413178</v>
@@ -637,7 +637,7 @@
         <v>0.9999555100769676</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9935934510833296</v>
+        <v>0.9967611336032388</v>
       </c>
       <c r="H3" t="n">
         <v>0.9967611336032388</v>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9999911990424558</v>
       </c>
       <c r="C4" t="n">
         <v>0.9777230493675138</v>
@@ -707,7 +707,7 @@
         <v>0.9999555100769676</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9952051192927106</v>
+        <v>0.9983779399837792</v>
       </c>
       <c r="H4" t="n">
         <v>0.9983779399837792</v>

--- a/benchmark/results/hierarchical_metrics/sp_rdp_its.100.xlsx
+++ b/benchmark/results/hierarchical_metrics/sp_rdp_its.100.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,324 +434,423 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>metric</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>btop</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C2" t="n">
+        <v>0.9999911990424558</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9999911990424558</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9999911990424558</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>ct1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C3" t="n">
+        <v>0.9840904993690284</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.971437469413178</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9777230493675138</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>ct2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="C4" t="n">
+        <v>0.9818286251370686</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8365440227788405</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.903382338810416</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>hitac_qiime</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="C5" t="n">
+        <v>0.9999555100769676</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9999555100769676</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9999555100769676</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>hitac_standalone</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="C6" t="n">
+        <v>0.9999555100769676</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9999555100769676</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9999555100769676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>hitac_filter_qiime</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9967611336032388</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9983779399837792</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>hitac_filter_standalone</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9967611336032388</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9983779399837792</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>knn</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7639542643591226</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8661837552082807</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>ktop</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="C10" t="n">
+        <v>0.9992080793700228</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9992080793700228</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9992080793700228</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>metaxa2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8152956355385506</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8982510832696116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>microclass</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="C12" t="n">
+        <v>0.9991102015393514</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9991102015393514</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9991102015393514</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>q1</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="C13" t="n">
+        <v>0.987188381249268</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9749610713173468</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9810366284951966</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>q2blast</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="C14" t="n">
+        <v>0.9817304090890174</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8396138274680784</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.905127553345068</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>q2sk</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="C15" t="n">
+        <v>0.9987563635712944</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9932820216221026</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9960116705479268</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>q2vs</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="C16" t="n">
+        <v>0.9827255477328576</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8433242870489834</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9077039477464708</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>rdp50</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="C17" t="n">
+        <v>0.9958390876286364</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9945099434977978</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9951740717656488</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>rdp80</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="C18" t="n">
+        <v>0.9978383905427344</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9899007874716376</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9938537404634707</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>sintax50</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="C19" t="n">
+        <v>0.9993752008283052</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.996271744449882</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9978210595265148</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>sintax80</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="C20" t="n">
+        <v>0.9999727587240186</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9798816568047336</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9898252678507226</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>spingo</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.423935578591449</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5954420761237025</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>top</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9999911990424558</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9840904993690284</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9818286251370686</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9999555100769676</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.9999555100769676</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9992080793700228</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.9991102015393514</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.987188381249268</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.9817304090890174</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.9987563635712944</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.9827255477328576</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.9958390876286364</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.9978383905427344</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.9993752008283052</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.9999727587240186</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="C22" t="n">
         <v>0.9993593451083328</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9999911990424558</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.971437469413178</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8365440227788405</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9999555100769676</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.9999555100769676</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9967611336032388</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9967611336032388</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.7639542643591226</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9992080793700228</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.8152956355385506</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.9991102015393514</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9749610713173468</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.8396138274680784</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.9932820216221026</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.8433242870489834</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.9945099434977978</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.9899007874716376</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.996271744449882</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.9798816568047336</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.423935578591449</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="D22" t="n">
         <v>0.9993593451083328</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9999911990424558</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9777230493675138</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.903382338810416</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9999555100769676</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9999555100769676</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9983779399837792</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9983779399837792</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.8661837552082807</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9992080793700228</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.8982510832696116</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.9991102015393514</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9810366284951966</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.905127553345068</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.9960116705479268</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.9077039477464708</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.9951740717656488</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.9938537404634707</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.9978210595265148</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.9898252678507226</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.5954420761237025</v>
-      </c>
-      <c r="V4" t="n">
+      <c r="E22" t="n">
         <v>0.9993593451083328</v>
       </c>
     </row>
